--- a/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$W$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>产品图号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,9 +84,6 @@
     <t>天津305</t>
   </si>
   <si>
-    <t>bbbb</t>
-  </si>
-  <si>
     <t>国产/进口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共计需求数量（重量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Φ140</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,16 +171,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eeee</t>
-  </si>
-  <si>
-    <t>ffff</t>
+    <t>计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试物资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>弹/箭上</t>
+  </si>
+  <si>
+    <t>A200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -222,9 +242,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,260 +548,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="8.25" customWidth="1"/>
-    <col min="5" max="11" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="20.75" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
+    <col min="7" max="12" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
-        <v>18</v>
+      <c r="Y1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3841</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1">
+        <v>42984</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3841</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1">
-        <v>42984</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2">
         <v>3841</v>
       </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3">
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>11</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>11</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>42984</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
         <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="8">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3">
+      <formula1>"M,C,S,D"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3">
+      <formula1>"天津305"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3">
-      <formula1>"M,C,S,D"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3">
-      <formula1>"天津305"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3">
       <formula1>"内部,秘密,机密"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3">
       <formula1>"国产,进口"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
-      <formula1>"一般,紧急"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1 U4:U1048576">
+      <formula1>"eeee,ffff"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3">
+      <formula1>"弹/箭上"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
-      <formula1>"aaaa,bbbb"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
-      <formula1>"eeee,ffff"</formula1>
+      <formula1>"A100,A200"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3">
+      <formula1>"一般,急,特急"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+      <formula1>"弹/箭上,辅料,工装,中间料"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>A200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚料尺寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,9 +204,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -251,7 +250,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -580,7 +579,7 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>26</v>
@@ -595,25 +594,25 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>7</v>
@@ -645,7 +644,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -657,28 +656,28 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2">
         <v>3841</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
@@ -687,13 +686,13 @@
         <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="4">
-        <v>1</v>
+        <v>706</v>
       </c>
       <c r="Q2" s="2">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="R2" s="1">
         <v>42984</v>
@@ -705,10 +704,10 @@
         <v>21</v>
       </c>
       <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
         <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
       </c>
       <c r="W2" t="s">
         <v>20</v>
@@ -722,7 +721,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -734,28 +733,28 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2">
         <v>3841</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
@@ -764,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="4">
         <v>1</v>
@@ -782,10 +781,10 @@
         <v>21</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
         <v>20</v>

--- a/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
@@ -196,7 +196,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胚料尺寸</t>
+    <t>坯料尺寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>产品图号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>坯料尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件质量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,25 +551,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
-    <col min="7" max="12" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.75" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.75" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -597,52 +601,55 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -673,53 +680,56 @@
       <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>11</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>706</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="R2" s="2">
         <v>120</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>42984</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -750,56 +760,59 @@
       <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>11</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>42984</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>44</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4:U65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V65536">
       <formula1>"eeee,ffff"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/车间物资导入模板.xlsx
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
